--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>177</v>
+      </c>
+      <c r="E2" t="n">
+        <v>217</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-40.47619047619047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-76</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-50.33112582781457</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-102</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-57.6271186440678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-65.43778801843318</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B3" t="n">
+        <v>108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>196</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-48.14814814814815</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-57.25190839694656</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-64.1025641025641</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-71.42857142857143</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B0D2V4VH2C</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" t="n">
+        <v>108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>156</v>
+      </c>
+      <c r="E4" t="n">
+        <v>197</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-50.92592592592593</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-78</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-59.54198473282442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-103</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-66.02564102564102</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-144</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-73.09644670050761</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>198</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-46.22641509433962</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-55.81395348837209</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-99</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-63.46153846153846</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-141</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-71.21212121212122</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B6" t="n">
+        <v>104</v>
+      </c>
+      <c r="C6" t="n">
+        <v>127</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>202</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-62</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-48.81889763779527</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-91</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-58.33333333333334</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-137</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-67.82178217821783</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" t="n">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
+        <v>128</v>
+      </c>
+      <c r="D7" t="n">
+        <v>156</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-46.66666666666666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-56.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-64.1025641025641</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-144</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-72</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>105</v>
+      </c>
+      <c r="C8" t="n">
+        <v>129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>161</v>
+      </c>
+      <c r="E8" t="n">
+        <v>215</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-47.61904761904761</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-74</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-57.36434108527132</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-106</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-65.83850931677019</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-74.41860465116279</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>156</v>
+      </c>
+      <c r="E9" t="n">
+        <v>207</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-58.82352941176471</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-66.40000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-114</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-73.07692307692307</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-79.71014492753623</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" t="n">
+        <v>101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>124</v>
+      </c>
+      <c r="D10" t="n">
+        <v>152</v>
+      </c>
+      <c r="E10" t="n">
+        <v>197</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-53.46534653465347</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-62.09677419354838</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-69.07894736842105</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-76.14213197969542</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>82</v>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>124</v>
+      </c>
+      <c r="D11" t="n">
+        <v>156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>209</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-19.6078431372549</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-33.87096774193548</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-74</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-47.43589743589743</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-60.76555023923444</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>82</v>
+      </c>
+      <c r="B12" t="n">
+        <v>105</v>
+      </c>
+      <c r="C12" t="n">
+        <v>129</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164</v>
+      </c>
+      <c r="E12" t="n">
+        <v>221</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-21.90476190476191</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-47</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-36.43410852713178</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-82</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-62.89592760180995</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>82</v>
+      </c>
+      <c r="B13" t="n">
+        <v>108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>132</v>
+      </c>
+      <c r="D13" t="n">
+        <v>168</v>
+      </c>
+      <c r="E13" t="n">
+        <v>227</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-26</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-24.07407407407407</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-50</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-37.87878787878788</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-86</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-51.19047619047619</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-63.87665198237885</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>75</v>
+      </c>
+      <c r="B14" t="n">
+        <v>103</v>
+      </c>
+      <c r="C14" t="n">
         <v>126</v>
       </c>
-      <c r="E2" t="n">
-        <v>151</v>
-      </c>
-      <c r="F2" t="n">
-        <v>177</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="D14" t="n">
+        <v>159</v>
+      </c>
+      <c r="E14" t="n">
+        <v>214</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-28</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-27.18446601941747</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-51</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-40.47619047619047</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-84</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-52.83018867924528</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-64.95327102803739</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>104</v>
+      </c>
+      <c r="C15" t="n">
+        <v>127</v>
+      </c>
+      <c r="D15" t="n">
+        <v>163</v>
+      </c>
+      <c r="E15" t="n">
+        <v>223</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-62</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-48.81889763779527</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-98</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-60.12269938650306</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-70.85201793721974</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63</v>
+      </c>
+      <c r="B16" t="n">
+        <v>101</v>
+      </c>
+      <c r="C16" t="n">
+        <v>123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>158</v>
+      </c>
+      <c r="E16" t="n">
         <v>217</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="F16" t="n">
+        <v>-38</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-37.62376237623762</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-60</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-48.78048780487805</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-60.12658227848101</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-70.96774193548387</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>122</v>
+      </c>
+      <c r="D17" t="n">
+        <v>157</v>
+      </c>
+      <c r="E17" t="n">
+        <v>214</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-35</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-57</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-46.72131147540984</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-92</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-58.59872611464968</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-69.62616822429906</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>B0D2V4VH2C</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>108</v>
-      </c>
-      <c r="E3" t="n">
-        <v>131</v>
-      </c>
-      <c r="F3" t="n">
-        <v>156</v>
-      </c>
-      <c r="G3" t="n">
-        <v>196</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>108</v>
-      </c>
-      <c r="E4" t="n">
-        <v>131</v>
-      </c>
-      <c r="F4" t="n">
-        <v>156</v>
-      </c>
-      <c r="G4" t="n">
-        <v>197</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>106</v>
-      </c>
-      <c r="E5" t="n">
-        <v>129</v>
-      </c>
-      <c r="F5" t="n">
-        <v>156</v>
-      </c>
-      <c r="G5" t="n">
-        <v>198</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>104</v>
-      </c>
-      <c r="E6" t="n">
-        <v>127</v>
-      </c>
-      <c r="F6" t="n">
-        <v>156</v>
-      </c>
-      <c r="G6" t="n">
-        <v>202</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>105</v>
-      </c>
-      <c r="E7" t="n">
-        <v>128</v>
-      </c>
-      <c r="F7" t="n">
-        <v>156</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>94</v>
-      </c>
-      <c r="D8" t="n">
-        <v>105</v>
-      </c>
-      <c r="E8" t="n">
-        <v>129</v>
-      </c>
-      <c r="F8" t="n">
-        <v>161</v>
-      </c>
-      <c r="G8" t="n">
-        <v>215</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102</v>
-      </c>
-      <c r="E9" t="n">
-        <v>125</v>
-      </c>
-      <c r="F9" t="n">
-        <v>156</v>
-      </c>
-      <c r="G9" t="n">
-        <v>207</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>85.60000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>101</v>
-      </c>
-      <c r="E10" t="n">
-        <v>124</v>
-      </c>
-      <c r="F10" t="n">
-        <v>152</v>
-      </c>
-      <c r="G10" t="n">
-        <v>197</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102</v>
-      </c>
-      <c r="E11" t="n">
-        <v>124</v>
-      </c>
-      <c r="F11" t="n">
-        <v>156</v>
-      </c>
-      <c r="G11" t="n">
-        <v>209</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>111.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>105</v>
-      </c>
-      <c r="E12" t="n">
-        <v>129</v>
-      </c>
-      <c r="F12" t="n">
-        <v>164</v>
-      </c>
-      <c r="G12" t="n">
-        <v>221</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108</v>
-      </c>
-      <c r="E13" t="n">
-        <v>132</v>
-      </c>
-      <c r="F13" t="n">
-        <v>168</v>
-      </c>
-      <c r="G13" t="n">
-        <v>227</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>103</v>
-      </c>
-      <c r="E14" t="n">
-        <v>126</v>
-      </c>
-      <c r="F14" t="n">
-        <v>159</v>
-      </c>
-      <c r="G14" t="n">
-        <v>214</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>104</v>
-      </c>
-      <c r="E15" t="n">
-        <v>127</v>
-      </c>
-      <c r="F15" t="n">
-        <v>163</v>
-      </c>
-      <c r="G15" t="n">
-        <v>223</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>101</v>
-      </c>
-      <c r="E16" t="n">
-        <v>123</v>
-      </c>
-      <c r="F16" t="n">
-        <v>158</v>
-      </c>
-      <c r="G16" t="n">
-        <v>217</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>98.30000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>122</v>
-      </c>
-      <c r="F17" t="n">
-        <v>157</v>
-      </c>
-      <c r="G17" t="n">
-        <v>214</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>459</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>241</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>42</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B2" t="n">
         <v>126</v>
@@ -531,28 +531,28 @@
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>-51</v>
+        <v>-20</v>
       </c>
       <c r="G2" t="n">
-        <v>-40.47619047619047</v>
+        <v>-15.87301587301587</v>
       </c>
       <c r="H2" t="n">
-        <v>-76</v>
+        <v>-45</v>
       </c>
       <c r="I2" t="n">
-        <v>-50.33112582781457</v>
+        <v>-29.80132450331126</v>
       </c>
       <c r="J2" t="n">
-        <v>-102</v>
+        <v>-71</v>
       </c>
       <c r="K2" t="n">
-        <v>-57.6271186440678</v>
+        <v>-40.11299435028249</v>
       </c>
       <c r="L2" t="n">
-        <v>-142</v>
+        <v>-111</v>
       </c>
       <c r="M2" t="n">
-        <v>-65.43778801843318</v>
+        <v>-51.1520737327189</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B3" t="n">
         <v>108</v>
@@ -593,28 +593,28 @@
         <v>196</v>
       </c>
       <c r="F3" t="n">
-        <v>-52</v>
+        <v>-16</v>
       </c>
       <c r="G3" t="n">
-        <v>-48.14814814814815</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="H3" t="n">
-        <v>-75</v>
+        <v>-39</v>
       </c>
       <c r="I3" t="n">
-        <v>-57.25190839694656</v>
+        <v>-29.77099236641221</v>
       </c>
       <c r="J3" t="n">
-        <v>-100</v>
+        <v>-64</v>
       </c>
       <c r="K3" t="n">
-        <v>-64.1025641025641</v>
+        <v>-41.02564102564102</v>
       </c>
       <c r="L3" t="n">
-        <v>-140</v>
+        <v>-104</v>
       </c>
       <c r="M3" t="n">
-        <v>-71.42857142857143</v>
+        <v>-53.06122448979592</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
         <v>108</v>
@@ -655,28 +655,28 @@
         <v>197</v>
       </c>
       <c r="F4" t="n">
-        <v>-55</v>
+        <v>-16</v>
       </c>
       <c r="G4" t="n">
-        <v>-50.92592592592593</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="H4" t="n">
-        <v>-78</v>
+        <v>-39</v>
       </c>
       <c r="I4" t="n">
-        <v>-59.54198473282442</v>
+        <v>-29.77099236641221</v>
       </c>
       <c r="J4" t="n">
-        <v>-103</v>
+        <v>-64</v>
       </c>
       <c r="K4" t="n">
-        <v>-66.02564102564102</v>
+        <v>-41.02564102564102</v>
       </c>
       <c r="L4" t="n">
-        <v>-144</v>
+        <v>-105</v>
       </c>
       <c r="M4" t="n">
-        <v>-73.09644670050761</v>
+        <v>-53.29949238578681</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B5" t="n">
         <v>106</v>
@@ -717,28 +717,28 @@
         <v>198</v>
       </c>
       <c r="F5" t="n">
-        <v>-49</v>
+        <v>-16</v>
       </c>
       <c r="G5" t="n">
-        <v>-46.22641509433962</v>
+        <v>-15.09433962264151</v>
       </c>
       <c r="H5" t="n">
-        <v>-72</v>
+        <v>-39</v>
       </c>
       <c r="I5" t="n">
-        <v>-55.81395348837209</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="J5" t="n">
-        <v>-99</v>
+        <v>-66</v>
       </c>
       <c r="K5" t="n">
-        <v>-63.46153846153846</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L5" t="n">
-        <v>-141</v>
+        <v>-108</v>
       </c>
       <c r="M5" t="n">
-        <v>-71.21212121212122</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
         <v>104</v>
@@ -779,28 +779,28 @@
         <v>202</v>
       </c>
       <c r="F6" t="n">
-        <v>-39</v>
+        <v>-15</v>
       </c>
       <c r="G6" t="n">
-        <v>-37.5</v>
+        <v>-14.42307692307692</v>
       </c>
       <c r="H6" t="n">
-        <v>-62</v>
+        <v>-38</v>
       </c>
       <c r="I6" t="n">
-        <v>-48.81889763779527</v>
+        <v>-29.92125984251969</v>
       </c>
       <c r="J6" t="n">
-        <v>-91</v>
+        <v>-67</v>
       </c>
       <c r="K6" t="n">
-        <v>-58.33333333333334</v>
+        <v>-42.94871794871795</v>
       </c>
       <c r="L6" t="n">
-        <v>-137</v>
+        <v>-113</v>
       </c>
       <c r="M6" t="n">
-        <v>-67.82178217821783</v>
+        <v>-55.94059405940595</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B7" t="n">
         <v>105</v>
@@ -841,28 +841,28 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>-49</v>
+        <v>-15</v>
       </c>
       <c r="G7" t="n">
-        <v>-46.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H7" t="n">
-        <v>-72</v>
+        <v>-38</v>
       </c>
       <c r="I7" t="n">
-        <v>-56.25</v>
+        <v>-29.6875</v>
       </c>
       <c r="J7" t="n">
-        <v>-100</v>
+        <v>-66</v>
       </c>
       <c r="K7" t="n">
-        <v>-64.1025641025641</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L7" t="n">
-        <v>-144</v>
+        <v>-110</v>
       </c>
       <c r="M7" t="n">
-        <v>-72</v>
+        <v>-55.00000000000001</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
         <v>105</v>
@@ -903,28 +903,28 @@
         <v>215</v>
       </c>
       <c r="F8" t="n">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="G8" t="n">
-        <v>-47.61904761904761</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H8" t="n">
-        <v>-74</v>
+        <v>-39</v>
       </c>
       <c r="I8" t="n">
-        <v>-57.36434108527132</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="J8" t="n">
-        <v>-106</v>
+        <v>-71</v>
       </c>
       <c r="K8" t="n">
-        <v>-65.83850931677019</v>
+        <v>-44.09937888198758</v>
       </c>
       <c r="L8" t="n">
-        <v>-160</v>
+        <v>-125</v>
       </c>
       <c r="M8" t="n">
-        <v>-74.41860465116279</v>
+        <v>-58.13953488372093</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B9" t="n">
         <v>102</v>
@@ -965,28 +965,28 @@
         <v>207</v>
       </c>
       <c r="F9" t="n">
-        <v>-60</v>
+        <v>-14</v>
       </c>
       <c r="G9" t="n">
-        <v>-58.82352941176471</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="H9" t="n">
-        <v>-83</v>
+        <v>-37</v>
       </c>
       <c r="I9" t="n">
-        <v>-66.40000000000001</v>
+        <v>-29.6</v>
       </c>
       <c r="J9" t="n">
-        <v>-114</v>
+        <v>-68</v>
       </c>
       <c r="K9" t="n">
-        <v>-73.07692307692307</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L9" t="n">
-        <v>-165</v>
+        <v>-119</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.71014492753623</v>
+        <v>-57.48792270531401</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B10" t="n">
         <v>101</v>
@@ -1027,28 +1027,28 @@
         <v>197</v>
       </c>
       <c r="F10" t="n">
-        <v>-54</v>
+        <v>-14</v>
       </c>
       <c r="G10" t="n">
-        <v>-53.46534653465347</v>
+        <v>-13.86138613861386</v>
       </c>
       <c r="H10" t="n">
-        <v>-77</v>
+        <v>-37</v>
       </c>
       <c r="I10" t="n">
-        <v>-62.09677419354838</v>
+        <v>-29.83870967741936</v>
       </c>
       <c r="J10" t="n">
-        <v>-105</v>
+        <v>-65</v>
       </c>
       <c r="K10" t="n">
-        <v>-69.07894736842105</v>
+        <v>-42.76315789473684</v>
       </c>
       <c r="L10" t="n">
-        <v>-150</v>
+        <v>-110</v>
       </c>
       <c r="M10" t="n">
-        <v>-76.14213197969542</v>
+        <v>-55.83756345177665</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" t="n">
         <v>102</v>
@@ -1089,28 +1089,28 @@
         <v>209</v>
       </c>
       <c r="F11" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="G11" t="n">
-        <v>-19.6078431372549</v>
+        <v>-14.70588235294118</v>
       </c>
       <c r="H11" t="n">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="I11" t="n">
-        <v>-33.87096774193548</v>
+        <v>-29.83870967741936</v>
       </c>
       <c r="J11" t="n">
-        <v>-74</v>
+        <v>-69</v>
       </c>
       <c r="K11" t="n">
-        <v>-47.43589743589743</v>
+        <v>-44.23076923076923</v>
       </c>
       <c r="L11" t="n">
-        <v>-127</v>
+        <v>-122</v>
       </c>
       <c r="M11" t="n">
-        <v>-60.76555023923444</v>
+        <v>-58.3732057416268</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B12" t="n">
         <v>105</v>
@@ -1151,28 +1151,28 @@
         <v>221</v>
       </c>
       <c r="F12" t="n">
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="G12" t="n">
-        <v>-21.90476190476191</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H12" t="n">
-        <v>-47</v>
+        <v>-39</v>
       </c>
       <c r="I12" t="n">
-        <v>-36.43410852713178</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="J12" t="n">
-        <v>-82</v>
+        <v>-74</v>
       </c>
       <c r="K12" t="n">
-        <v>-50</v>
+        <v>-45.1219512195122</v>
       </c>
       <c r="L12" t="n">
-        <v>-139</v>
+        <v>-131</v>
       </c>
       <c r="M12" t="n">
-        <v>-62.89592760180995</v>
+        <v>-59.27601809954751</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B13" t="n">
         <v>108</v>
@@ -1213,28 +1213,28 @@
         <v>227</v>
       </c>
       <c r="F13" t="n">
-        <v>-26</v>
+        <v>-16</v>
       </c>
       <c r="G13" t="n">
-        <v>-24.07407407407407</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="H13" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="I13" t="n">
-        <v>-37.87878787878788</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="J13" t="n">
-        <v>-86</v>
+        <v>-76</v>
       </c>
       <c r="K13" t="n">
-        <v>-51.19047619047619</v>
+        <v>-45.23809523809524</v>
       </c>
       <c r="L13" t="n">
-        <v>-145</v>
+        <v>-135</v>
       </c>
       <c r="M13" t="n">
-        <v>-63.87665198237885</v>
+        <v>-59.47136563876651</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B14" t="n">
         <v>103</v>
@@ -1275,28 +1275,28 @@
         <v>214</v>
       </c>
       <c r="F14" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="G14" t="n">
-        <v>-27.18446601941747</v>
+        <v>-14.5631067961165</v>
       </c>
       <c r="H14" t="n">
-        <v>-51</v>
+        <v>-38</v>
       </c>
       <c r="I14" t="n">
-        <v>-40.47619047619047</v>
+        <v>-30.15873015873016</v>
       </c>
       <c r="J14" t="n">
-        <v>-84</v>
+        <v>-71</v>
       </c>
       <c r="K14" t="n">
-        <v>-52.83018867924528</v>
+        <v>-44.65408805031446</v>
       </c>
       <c r="L14" t="n">
-        <v>-139</v>
+        <v>-126</v>
       </c>
       <c r="M14" t="n">
-        <v>-64.95327102803739</v>
+        <v>-58.87850467289719</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B15" t="n">
         <v>104</v>
@@ -1337,28 +1337,28 @@
         <v>223</v>
       </c>
       <c r="F15" t="n">
-        <v>-39</v>
+        <v>-15</v>
       </c>
       <c r="G15" t="n">
-        <v>-37.5</v>
+        <v>-14.42307692307692</v>
       </c>
       <c r="H15" t="n">
-        <v>-62</v>
+        <v>-38</v>
       </c>
       <c r="I15" t="n">
-        <v>-48.81889763779527</v>
+        <v>-29.92125984251969</v>
       </c>
       <c r="J15" t="n">
-        <v>-98</v>
+        <v>-74</v>
       </c>
       <c r="K15" t="n">
-        <v>-60.12269938650306</v>
+        <v>-45.39877300613497</v>
       </c>
       <c r="L15" t="n">
-        <v>-158</v>
+        <v>-134</v>
       </c>
       <c r="M15" t="n">
-        <v>-70.85201793721974</v>
+        <v>-60.0896860986547</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B16" t="n">
         <v>101</v>
@@ -1399,28 +1399,28 @@
         <v>217</v>
       </c>
       <c r="F16" t="n">
-        <v>-38</v>
+        <v>-15</v>
       </c>
       <c r="G16" t="n">
-        <v>-37.62376237623762</v>
+        <v>-14.85148514851485</v>
       </c>
       <c r="H16" t="n">
-        <v>-60</v>
+        <v>-37</v>
       </c>
       <c r="I16" t="n">
-        <v>-48.78048780487805</v>
+        <v>-30.08130081300813</v>
       </c>
       <c r="J16" t="n">
-        <v>-95</v>
+        <v>-72</v>
       </c>
       <c r="K16" t="n">
-        <v>-60.12658227848101</v>
+        <v>-45.56962025316456</v>
       </c>
       <c r="L16" t="n">
-        <v>-154</v>
+        <v>-131</v>
       </c>
       <c r="M16" t="n">
-        <v>-70.96774193548387</v>
+        <v>-60.36866359447005</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B17" t="n">
         <v>100</v>
@@ -1461,28 +1461,28 @@
         <v>214</v>
       </c>
       <c r="F17" t="n">
-        <v>-35</v>
+        <v>-15</v>
       </c>
       <c r="G17" t="n">
-        <v>-35</v>
+        <v>-15</v>
       </c>
       <c r="H17" t="n">
-        <v>-57</v>
+        <v>-37</v>
       </c>
       <c r="I17" t="n">
-        <v>-46.72131147540984</v>
+        <v>-30.32786885245902</v>
       </c>
       <c r="J17" t="n">
-        <v>-92</v>
+        <v>-72</v>
       </c>
       <c r="K17" t="n">
-        <v>-58.59872611464968</v>
+        <v>-45.85987261146497</v>
       </c>
       <c r="L17" t="n">
-        <v>-149</v>
+        <v>-129</v>
       </c>
       <c r="M17" t="n">
-        <v>-69.62616822429906</v>
+        <v>-60.28037383177571</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1441</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>737</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>380</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>159</v>
+        <v>86.95</v>
       </c>
       <c r="D2" t="n">
         <v>164</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>45.25</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>51.25</v>
       </c>
       <c r="D4" t="n">
         <v>71</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>43.85</v>
       </c>
       <c r="D5" t="n">
         <v>48</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>70.3</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>46.35</v>
       </c>
       <c r="D7" t="n">
         <v>51</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>44.5</v>
       </c>
       <c r="D8" t="n">
         <v>51</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>44.95</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52</v>
+        <v>64.95</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>74</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>62.6</v>
       </c>
       <c r="D12" t="n">
         <v>85</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>62.95</v>
       </c>
       <c r="D13" t="n">
         <v>84</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>81</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>83</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
         <v>82</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78</v>
+        <v>51.95</v>
       </c>
       <c r="D16" t="n">
         <v>80</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82</v>
+        <v>52.65000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>921 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>903</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>433</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86.95</v>
+        <v>50.3</v>
       </c>
       <c r="D2" t="n">
         <v>164</v>
@@ -500,8 +500,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45.25</v>
+        <v>53.7</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -535,8 +535,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51.25</v>
+        <v>57.4</v>
       </c>
       <c r="D4" t="n">
         <v>71</v>
@@ -570,8 +570,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43.85</v>
+        <v>53.9</v>
       </c>
       <c r="D5" t="n">
         <v>48</v>
@@ -605,8 +605,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70.3</v>
+        <v>49.9</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -640,8 +640,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.35</v>
+        <v>52.9</v>
       </c>
       <c r="D7" t="n">
         <v>51</v>
@@ -675,8 +675,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44.5</v>
+        <v>61.4</v>
       </c>
       <c r="D8" t="n">
         <v>51</v>
@@ -710,8 +710,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.95</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -745,8 +745,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>64.95</v>
+        <v>62.4</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -780,8 +780,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45.90000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -815,8 +815,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62.6</v>
+        <v>60.4</v>
       </c>
       <c r="D12" t="n">
         <v>85</v>
@@ -850,8 +850,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62.95</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>84</v>
@@ -885,8 +885,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>83</v>
@@ -920,8 +920,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>82</v>
@@ -955,8 +955,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.95</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>80</v>
@@ -990,8 +990,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52.65000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
@@ -1025,8 +1025,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>973</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>445</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50.3</v>
+        <v>99.5</v>
       </c>
       <c r="D2" t="n">
         <v>164</v>
@@ -500,8 +500,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.7</v>
+        <v>73.2</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -535,8 +535,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.4</v>
+        <v>78.7</v>
       </c>
       <c r="D4" t="n">
         <v>71</v>
@@ -570,8 +570,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53.9</v>
+        <v>68.3</v>
       </c>
       <c r="D5" t="n">
         <v>48</v>
@@ -605,8 +605,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.9</v>
+        <v>65.2</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -640,8 +640,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.9</v>
+        <v>68.2</v>
       </c>
       <c r="D7" t="n">
         <v>51</v>
@@ -675,8 +675,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61.4</v>
+        <v>76.7</v>
       </c>
       <c r="D8" t="n">
         <v>51</v>
@@ -710,8 +710,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -745,8 +745,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>62.4</v>
+        <v>78.3</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -780,8 +780,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57.9</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -815,8 +815,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60.4</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>85</v>
@@ -850,8 +850,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68.90000000000001</v>
+        <v>94.10000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>84</v>
@@ -885,8 +885,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74.40000000000001</v>
+        <v>99.30000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>83</v>
@@ -920,8 +920,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>70.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D15" t="n">
         <v>82</v>
@@ -955,8 +955,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>80</v>
@@ -990,8 +990,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>67.40000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
@@ -1025,8 +1025,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1326</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>611</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>320</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>65</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99.5</v>
+        <v>148.45</v>
       </c>
       <c r="D2" t="n">
         <v>164</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73.2</v>
+        <v>59.40000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.7</v>
+        <v>64.7</v>
       </c>
       <c r="D4" t="n">
         <v>71</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.3</v>
+        <v>44.95</v>
       </c>
       <c r="D5" t="n">
         <v>48</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65.2</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68.2</v>
+        <v>47.74999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>51</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76.7</v>
+        <v>47.65</v>
       </c>
       <c r="D8" t="n">
         <v>51</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.2</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78.3</v>
+        <v>49.4</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80.40000000000001</v>
+        <v>67.95</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>85.90000000000001</v>
+        <v>76.44999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>85</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>94.10000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D13" t="n">
         <v>84</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>99.30000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>83</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>95.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>82</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>80</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.30000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1073</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>508</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>318</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -500,8 +500,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>148.45</v>
+        <v>99.5</v>
       </c>
       <c r="D2" t="n">
         <v>164</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64.7</v>
+        <v>78.7</v>
       </c>
       <c r="D4" t="n">
         <v>71</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67.95</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76.44999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>85</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>75.5</v>
+        <v>94.10000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>84</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>72.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>80</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74.90000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1127</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>487</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>296</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>100</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
         <v>164</v>
@@ -500,7 +500,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -535,7 +535,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.7</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
         <v>71</v>
@@ -570,7 +570,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44.95</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
         <v>48</v>
@@ -605,7 +605,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47.59999999999999</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -640,7 +640,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47.74999999999999</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
         <v>51</v>
@@ -675,7 +675,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47.65</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
         <v>51</v>
@@ -710,7 +710,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.59999999999999</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -745,7 +745,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -780,7 +780,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -815,7 +815,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
         <v>85</v>
@@ -850,7 +850,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>94.10000000000001</v>
+        <v>94</v>
       </c>
       <c r="D13" t="n">
         <v>84</v>
@@ -885,7 +885,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
         <v>83</v>
@@ -920,7 +920,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>73.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="D15" t="n">
         <v>82</v>
@@ -955,7 +955,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="D16" t="n">
         <v>80</v>
@@ -990,7 +990,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.30000000000001</v>
+        <v>92</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
@@ -1025,7 +1025,7 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
+        <v>175</v>
+      </c>
+      <c r="F2" t="n">
         <v>199</v>
       </c>
-      <c r="F2" t="n">
-        <v>263</v>
-      </c>
       <c r="G2" t="n">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G3" t="n">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="F4" t="n">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="G4" t="n">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="E5" t="n">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F6" t="n">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="G6" t="n">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="F7" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="G7" t="n">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="E8" t="n">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="F8" t="n">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="G8" t="n">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F9" t="n">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="G10" t="n">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="F11" t="n">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="G11" t="n">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="E12" t="n">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="F12" t="n">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="G12" t="n">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="G13" t="n">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E14" t="n">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="F14" t="n">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="G14" t="n">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="F15" t="n">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="G15" t="n">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="F16" t="n">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="G16" t="n">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D17" t="n">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E17" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F17" t="n">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2024-11-24</t>
+          <t>2024-05-12 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>921 units</t>
+          <t>1320 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1790</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>872</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>428</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
         <v>135</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1791</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>103</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>102</v>
+      </c>
+      <c r="E2" t="n">
         <v>149</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>175</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>199</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>235</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>108</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>139</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>168</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>198</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>246</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>110</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>141</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>170</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>203</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>255</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>107</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>135</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>163</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>195</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>246</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>100</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>137</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>167</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>203</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>261</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>110</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>136</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>166</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>204</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>266</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>113</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>132</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>162</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>203</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>269</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>121</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>133</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>163</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>204</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>272</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>108</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>128</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>157</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>196</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>259</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>109</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>129</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>158</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>199</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>268</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>110</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>132</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>161</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>206</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>280</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>125</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>132</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>161</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>205</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>278</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>122</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>125</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>152</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>193</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>260</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>120</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>121</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>148</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>189</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>257</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>107</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>120</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>146</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>188</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>257</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>117</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>123</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>150</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>192</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>260</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650M GAMING PLUS WIFI</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>1790</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>427</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
         <v>149</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>428</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1789</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>871</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>427</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" t="n">
         <v>149</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
         <v>139</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
         <v>141</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n">
         <v>135</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" t="n">
         <v>137</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
         <v>132</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E9" t="n">
         <v>133</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
         <v>128</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" t="n">
         <v>129</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E12" t="n">
         <v>132</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
         <v>132</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E14" t="n">
         <v>125</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E15" t="n">
         <v>121</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E17" t="n">
         <v>123</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2024-12-29</t>
+          <t>2024-05-12 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1320 units</t>
+          <t>1458 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1633</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>825</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>401</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F2" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G2" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F3" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G3" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="H3" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F4" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G4" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F5" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G5" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H5" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E6" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G6" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H6" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>110</v>
       </c>
       <c r="E7" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" t="n">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H7" t="n">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G8" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H8" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F9" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G9" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H9" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F10" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G10" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F11" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G11" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H11" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G12" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H12" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E13" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G13" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G14" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H14" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F15" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G15" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H15" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
       </c>
       <c r="F16" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G16" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H16" t="n">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E17" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G17" t="n">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H17" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2025-01-05</t>
+          <t>2024-05-12 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1458 units</t>
+          <t>1590 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1676</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>859</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>431</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E11" t="n">
         <v>136</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E15" t="n">
         <v>124</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E17" t="n">
         <v>120</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1701</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>99</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E2" t="n">
         <v>163</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
         <v>156</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
         <v>145</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E9" t="n">
         <v>143</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
         <v>135</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" t="n">
         <v>136</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
         <v>140</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E14" t="n">
         <v>130</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E15" t="n">
         <v>124</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E17" t="n">
         <v>120</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1716</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>832</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>405</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" t="n">
         <v>143</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" t="n">
         <v>135</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" t="n">
         <v>140</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>133</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" t="n">
         <v>130</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1722</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>836</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>407</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v>163</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
         <v>156</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E6" t="n">
         <v>145</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E7" t="n">
         <v>138</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E8" t="n">
         <v>143</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E9" t="n">
         <v>143</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E10" t="n">
         <v>135</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E11" t="n">
         <v>136</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
         <v>140</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E13" t="n">
         <v>133</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E14" t="n">
         <v>130</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E15" t="n">
         <v>124</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E17" t="n">
         <v>120</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2025-01-12</t>
+          <t>2024-05-12 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1590 units</t>
+          <t>1648 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>1474</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>746</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>370</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E2" t="n">
         <v>163</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E3" t="n">
         <v>156</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
         <v>145</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
         <v>138</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
         <v>143</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
         <v>143</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="E10" t="n">
         <v>135</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E11" t="n">
         <v>136</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="E12" t="n">
         <v>140</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E13" t="n">
         <v>133</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E14" t="n">
         <v>130</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E15" t="n">
         <v>124</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1648 units</t>
+          <t>1688 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>2036</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>1063</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>514</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>188</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E2" t="n">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F2" t="n">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G2" t="n">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="H2" t="n">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F3" t="n">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="G3" t="n">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="H3" t="n">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="G4" t="n">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H4" t="n">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F5" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G5" t="n">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="H5" t="n">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F6" t="n">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="H6" t="n">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E7" t="n">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F7" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G7" t="n">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="H7" t="n">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E8" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F8" t="n">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G8" t="n">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="H8" t="n">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F9" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G9" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="H9" t="n">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F10" t="n">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G10" t="n">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="H10" t="n">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="E11" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G11" t="n">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H11" t="n">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="E12" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F12" t="n">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G12" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H12" t="n">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E13" t="n">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F13" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G13" t="n">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="H13" t="n">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F14" t="n">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G14" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="H14" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F15" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G15" t="n">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H15" t="n">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F16" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G16" t="n">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H16" t="n">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G17" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H17" t="n">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-12 to 2025-01-19</t>
+          <t>2024-05-12 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1688 units</t>
+          <t>1874 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>1715</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>852</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>434</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
+++ b/Sufficient data/forecast_summary_B0D2V4VH2C.xlsx
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
         <v>165</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
         <v>166</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>148</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>851</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
